--- a/output/Total_time_range_data/河南省/濮阳市_学习考察.xlsx
+++ b/output/Total_time_range_data/河南省/濮阳市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,222 +436,245 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>河南省</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>濮阳市</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>市政府代表团到鹤壁市考察学习</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2020-07-29</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.puyang.gov.cn/shownews.asp?id=116267</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['7月28日，市长杨青玖率领市政府代表团到鹤壁市，重点围绕新兴产业培育壮大、数字经济高质量发展、产业集聚区二次创业、智慧城市建设及创新驱动等方面进行考察学习。鹤壁市领导洪利民、郝志军陪同考察。市领导赵建玲、高建立参加考察。', '鹤壁5G产业园是全省首个5G产业园。该产业园以大数据中心和云平台服务为载体，规划建设有5G技术研究院、5G器件检测中心等，致力于打造数字经济产业生态圈。2019年开园以来，该产业园已吸引京东智联云（鹤壁）数字经济产业园、阿里云（鹤壁）创新中心等多家数字经济龙头企业入驻。代表团成员对鹤壁市抢抓新基建机遇、加快布局5G产业给予高度评价，表示要认真学习鹤壁市创新发展的新理念，努力实现以数字产业化培育新动能、以产业数字化孕育新动力。', '“垂天之云”是鹤壁国立光电科技有限公司、中国移动、华为基于云边端协同架构联合打造的智慧城市生态系统，目前已通过华为鲲鹏生态认证。已在“垂天之云”运行的智慧社区、智慧交通、智慧水利等5G应用场景，给代表团成员留下了深刻的印象，更增强了大家加快5G产业发展的紧迫感和责任感。', '河南仕佳光子科技公司，是国内领先的集无源芯片、有源芯片、光纤光缆、线缆材料等完整产业链于一体的高新技术企业，目前已成功实现PLC分路器芯片和AWG芯片的国产化和进口替代。代表团成员边看边议、边听边思，表示通过此次考察学习，开拓了眼界、拓展了思路，一定要把鹤壁市的成功经验和好的做法带回去，结合自身实际认真消化吸收，全面提升产业链现代化水平。', '在鹤壁考察期间，我市还与鹤壁市举行交流座谈会。杨青玖对鹤壁市的精心安排和热情接待表示感谢。他说，鹤壁与濮阳地缘相近、人员相亲，又同为中原经济协作区成员城市，可以说两市情同手足、亲如兄弟。近年来，鹤壁市围绕创建全国产业转型升级示范区，抢抓新基建发展机遇，在数字经济、云计算、高端芯片等战略性新兴产业方面取得了许多好经验、好做法，非常值得濮阳学习和借鉴。我们将以此次考察学习为契机，在创新驱动上强化对接，在人才交流上密切协作，努力开创两地协同发展、创新发展的美好未来。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>153</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>河南省</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>濮阳市</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>宋殿宇率党政考察团赴三门峡考察学习</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2019-12-09</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.puyang.gov.cn/shownews.asp?id=114340</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['12月6日至7日，市委书记宋殿宇率领我市党政考察团赴三门峡市，重点围绕新能源汽车研发、高等教育发展、智慧城市与大数据平台建设等方面进行考察学习。三门峡市党政主要领导陪同考察。', '市领导杨青玖、徐兰峰、郑大文、惠康、孙永振、高建立，濮阳职业技术学院党委书记陈景涛、院长刘东波参加考察。', '河南速达电动汽车科技有限公司年产10万辆纯电动汽车项目是三门峡市产业转型升级的重点工程。今年3月，该项目首辆自主研发量产车型下线。项目全部达产后，可直接实现年产值170亿元，吸纳产业工人约2万人。考察团听取项目整体情况汇报，了解电动汽车的产能、技术等主要指标，并参观生产车间。整洁的厂区环境、现代化的生产线和高效有序的企业管理，给考察团成员留下了深刻印象。最后，大家兴致勃勃地试乘试驾了电动汽车。', '正在加紧施工的宝武铝业科技有限公司年产30万吨铝合金精深加工项目，主要产品定位于目前国内重点领域急需的高精尖铝板带产品，在国内铝加工产业中处于领先地位。宋殿宇仔细聆听项目情况介绍，并与项目负责人交流，了解项目落地情况、建设情况等。', '三门峡职业技术学院工程训练中心占地1.8万平方米，有各类工程训练实践教学设备设施1500余台（套），共设置智能制造工程中心、机电技术实训中心、汽车工程训练中心、智慧物流工程中心、人体生命科学馆等部分。该中心是三门峡市开展各类职业技能培训鉴定、为全市提供专业技能人才的摇篮。考察团到达时，学生正在各自专业区域进行实训，场面非常壮观。考察团成员看得认真、问得仔细，并不时点头称赞。宋殿宇要求有关部门充分学习借鉴三门峡市先进经验，积极推进校企合作，加快实用技能人才培养，为濮阳经济高质量发展提供更多专业人才。', '智慧城市三门峡运营指挥中心利用互联网、大数据、云计算、视联网、物联网等前端信息技术，把三门峡市域联成一体，实现了全市联通“一张网”、数字空间“一张图”、城市运行“一张屏”。考察团听取中心负责人详细介绍情况，参观“12345”政府服务热线、“放管服”数字大脑等操作平台，并现场感受智慧城市建设给市民带来的高效、便捷服务。宋殿宇要求有关部门积极学习借鉴先进经验，加快智慧城市建设步伐，不断提高政府服务效能、提升服务水平，让广大人民群众有更多的获得感、幸福感。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>153</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>河南省</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>濮阳市</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>宋殿宇率队赴银川市考察学习</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2019-12-16</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.puyang.gov.cn/shownews.asp?id=114388</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['12月13日至14日，市委书记宋殿宇率领我市党政代表团赴宁夏回族自治区银川市，考察学习智慧城市建设运行和数字经济发展等方面的成功经验和做法。银川市党政主要领导陪同考察。市长杨青玖，市委常委、秘书长惠康和市直相关部门负责同志参加考察。', '在银川市智慧城市管理指挥中心，工作人员向考察团一行介绍了智慧银川“一图、一网、一云”的顶层设计，“社会综合治理、便民惠民利民、产业衍生发展”的三大目标等内容，以及在智慧交通、智慧环保、智慧医疗、智慧教育、“12345一号通”智慧城市管理指挥服务平台等方面的主要建设成果和数字经济发展情况。', '银川中关村创新创业科技园是贯彻落实习近平总书记对中关村“走出北京、带动全国”工作要求的具体实践，是银川市推进创新驱动战略、发展互联网数字经济的主阵地。考察团一行参观了银川中关村创新中心，听取该中心发展历程、产业布局及“一中心、一基地”的空间发展规划介绍，着重了解该中心在“一中心、八平台”创新服务平台搭建、国际交流合作、“互联网+N”产业聚集、高层次人才吸引等方面取得的成果。', '宋殿宇对银川市智慧城市和数字经济建设发展取得的成绩给予高度评价。他表示，银川市站位高远、视野开阔，勇于创新、锐意进取，以城市为单位进行的顶层设计，打破了政府各部门的信息壁垒，不仅惠民利民，而且能够推动产业衍生发展。我们要以此次考察学习为契机，充分借鉴银川市的典型经验和先进做法，全面应用大数据手段，加快智慧城市建设步伐，推动数字经济建设发展，助力我市经济高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>153</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>河南省</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>濮阳市</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>濮阳市党政代表团赴聊城市考察学习</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-07-08</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.puyang.gov.cn/shownews.asp?id=1000009449</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['市委书记万正峰，市领导孙起鹏、周东柯、张宏、聂长明、谢传芳；聊城市委书记李长萍，聊城市领导谢兆村、刘文强、刘昌松、刘培国、贾鹏柱等参加有关活动。', '近年来，聊城市以推动高质量发展为主题，深入实施制造业强市三年攻坚突破行动、民营经济高质量发展', '座谈会上，万正峰在讲话中感谢聊城市委、市政府的热情接待。他说，濮阳与聊城两市地缘相近、人缘相亲、文脉相通，人员往来频繁，经贸联系密切，在长期发展中相互支持、相互帮扶，结下了深厚友谊，两地区域协同发展基础坚实、优势显著。这次考察学习不仅让我们开阔了视野、看到了差距，启迪了思路，而且进一步拓展了实现共性战略和精准定位贯通统一的实践路径，更新了在新形势下推动区域经济协调发展的工作理念，增强了我们与聊城全面深化区域合作的信心决心。希望两市在深化黄河流域省际合作上作出示范，全面落实《鲁豫毗邻地区合作发展实施方案》，重点围绕生态环境共治、基础设施互通、产业发展共赢、科技创新合作、公共服务共建等方面拓宽合作领域，加强沟通对接，建立调度机制，细化推进举措，确保各项合作事项条条落实、件件落地、事事见效。欢迎大家多到濮阳走一走看一看，在互学互鉴中凝聚更大共识、达成更多合作。', '李长萍代表聊城市委、市政府对濮阳市党政代表团一行表示欢迎。她说，聊城市、濮阳市位于黄河下游，同属中原城市群重要节点城市，是一直以来相亲相近的好邻居，也是未来共同发展的好伙伴。当前，聊城市正在深入学习贯彻习近平总书记视察山东重要讲话精神，坚定扛牢“走在前、挑大梁”的使命担当，坚持和深化“6293”工作思路，深入实施“十二项提升行动”，加快打造山东服务融入新发展格局的西部“战略支点”、山东绿色低碳高质量发展的“两河明珠”城市。聊城希望与濮阳一道，坚决贯彻落实习近平总书记重要指示要求和党中央决策部署，在协同服务国家区域发展战略上深化对接落实，在协同发展新质生产力上推进互补互融，在协同完善合作交流机制上强化互动共享，不断深化交流合作，一“聊”就成、“濮”写新篇，共同为全国发展大局作出积极贡献。', '党政代表团一行表示欢迎。她说，聊城市、濮阳市位于黄河下游，同属中原城市群重要节点城市，是一直以来相亲相近的好邻居，也是未来共同发展的好伙伴。当前，聊城市正在深入学习贯彻习近平总书记视察山东重要讲话精神，坚定扛牢', '”工作思路，深入实施“十二项提升行动”，加快打造山东服务融入新发展格局的西部“战略支点”、山东绿色低碳高质量发展的“两河明珠”城市。聊城希望与濮阳一道，坚决贯彻落实习近平总书记重要指示要求和党中央决策部署，在协同服务国家区域发展战略上深化对接落实，在协同发展新质生产力上推进互补互融，在协同完善合作交流机制上强化互动共享，不断深化交流合作，一“聊”就成、“濮”写新篇，共同为全国发展大局作出积极贡献。', '副市长聂长明与聊城市委常委、常务副市长刘文强代表两市政府签署《协同推进黄河流域生态保护和高质量发展战略合作框架协议》，两市水利部门负责同志代表两市水利系统签署《推动金堤河共建共治合作协议》。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>153</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>河南省</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>濮阳市</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>宋殿宇率队到浙江考察学习并开展招商活动</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2020-09-25</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://www.puyang.gov.cn/shownews.asp?id=116699</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['9月24日，市委书记宋殿宇率队到浙江宁波、杭州考察学习并开展招商活动。宋殿宇要求，要认真学习借鉴沿海地区先进发展经验，结合濮阳自身实际，干在实处、加快发展，以实际行动把党中央各项决策部署落到实处，实现“十三五”圆满收官。市领导徐慧前、张宏义参加活动。', '宁波大榭开发区是宋殿宇考察的第一站。宁波市委常委、市纪委书记傅祖民参加活动。大榭开发区是国家级经济技术开发区，自1993年开发建设以来，形成了临港石化、港口物流、商贸服务三大支柱产业，一批世界500强和国内大型企业在此落户。其中，中海油大榭石化产业园、万华化学循环工业园等百亿元临港产业园已初具规模。2019年，大榭开发区位居全国化工园区30强第4位。宋殿宇深入大榭开发区各石化产业园参观考察，认真了解园区发展历程、定位和目标，以及产业结构、布局规划等。他表示，大榭开发区的发展模式、思想理念等值得濮阳学习借鉴。各级各有关部门要遵循创新、协调、绿色、开放、共享的发展理念，增强机遇意识，把握发展规律，发扬斗争精神，在危机中育新机、于变局中开新局，努力实现濮阳高质量发展。', '传化集团有限公司位于杭州，主要产业包括化工、物流、农业、科技城等，现有传化智联和新安股份2家上市公司，是中国企业500强之一。目前，该公司在全国已建成运营物流园68家，在建及拟开工项目13个，其拟在我市投资华龙区传化公路港城市物流中心和范县物流小镇2个项目。当天，在该公司副总裁许月明的陪同下，宋殿宇一行参观考察了企业并听取企业发展情况介绍。座谈会上，双方就加强合作进行磋商交流。宋殿宇表示，希望有关部门和县区加强与企业的沟通对接，加快推进项目在濮落地，实现早开工早建设。市委、市政府将持续打造一流营商环境，为企业在濮发展提供优质服务和优良环境。许月明表示，该公司高度重视濮阳项目进展，计划将濮阳建成企业物流的区域总部经济中心。希望濮阳在各方面给予大力支持，加快推进各项前期准备工作，助力项目建设取得实质性进展。', '浙江航民实业集团于2004年上市，现有全资、控股、参股企业28家，形成了以纺织、印染、热电、黄金饰品等为主体的多门类工业体系。目前，该集团正与海尔希集团合作研制生物营养剂、添加剂等高端产品，并计划将合作开发研究产品落户工业园区。宋殿宇与航民集团董事长朱重庆、海尔希董事长楼伟杰、河南龙润能源科技董事长施华峰、航民集团副总经理高连相、航民雪贝尔生物总经理祝国均进行了深入沟通交流，就下一步加强合作达成一致意向。宋殿宇在座谈中指出，航民村是中国经济十强村、中国十佳小康村。航民集团在40余年的发展过程中，坚持发展实体经济，坚持走集体化经济发展道路，实现共同富裕，不断提升公共服务水平，持续增强人民群众的获得感幸福感，做法令人称赞。我们要认真梳理总结、消化吸收这些好经验、好做法，取长补短、加快发展，为濮阳高质量发展注入新的活力。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>153</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>河南省</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>濮阳市</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>宋殿宇率党政考察团赴武汉考察学习</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2019-11-21</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.puyang.gov.cn/shownews.asp?id=114187</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['新时代的濮阳，如何在实现高质量发展的同时，在基层社会治理体系与治理能力现代化方面也探索新路？11月19日至20日，市委书记宋殿宇率领我市党政考察团赴武汉市学习考察社区党建和社区治理创新等工作。', '市领导余广庆、惠康、黄守玺参加考察。武汉市委副书记、市委组织部部长胡立山，百步亭集团董事局主席茅永红参加相关活动。', '“选择了百步亭，就是选择了幸福生活。”在武汉市江岸区百步亭社区，一直流传着这样一种说法。改革开放以来，这里由一片泥塘地发展成为一个占地5.5平方公里，居住着18万人的宜居、幸福社区。百步亭社区始终坚持党建引领文明和谐社区建设，充分发挥每个党员的作用，积极开展各类志愿服务活动，发动群众参与社区治理，创建了一个具有中国特色的和谐社区。', '在百步亭社区，考察团先后走访了百步亭社区党群服务中心、怡康苑、三居委会、物业服务处等地。在党群服务中心书画、舞蹈、戏曲等活动室，宋殿宇一行饶有兴致地观看了社区居民的表演和展示；在怡康苑，马杏英、王黎明等几位老人向宋殿宇讲述了社区志愿者的故事，宋殿宇与老人们亲切交谈，称赞他们“志愿服务做得好，在百姓中有威信，并且后继有人”；在三居委会和物业服务处，宋殿宇一行认真翻阅社区各项工作记录，不时与居委会和物业工作人员交流，深入了解社区志愿服务、物业服务等做法和经验。', '“百步亭不仅是党建工作的典型，还是以基层党建推进基层治理体系和治理能力现代化的典型。”考察团成员一致认为，百步亭社区以党建为引领，通过企业参与社区共建、物业融入基层治理、志愿者打通联系服务群众最后“一百米”等创新举措，充分整合并发挥群团组织和社会组织作用，形成了较为完整的基层治理体系，是基层治理实践创新、制度创新、理论创新的新典范。', '座谈会上，宋殿宇指出，党的十九届四中全会将“坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化”列为全党的一项重大战略任务。实现基层社会治理体系与治理能力现代化是推进国家治理体系和治理能力现代化的应有之义，我们要以改革创新精神，进一步拓宽思路，以基层党建推动基层治理体系和治理能力现代化，为濮阳高质量发展、全面建成小康社会提供保障。要结合濮阳的实际，大力学习推广百步亭社区的成功经验和做法，在加快实现住宅物业服务全覆盖的基础上，强化社区党建引领，坚持把党的建设贯穿于社区治理各方面，创新共建共治共享的社区治理机制，将居民需求与社区资源精准对接，提供有效服务，让居民有更多获得感，全面提升城市基层党的建设和社区治理工作水平。']</t>
         </is>
